--- a/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -76,7 +76,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -86,13 +86,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -260,7 +260,7 @@
 </x:table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -543,7 +543,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -562,7 +562,6 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
         <x:v>1</x:v>
@@ -754,7 +753,6 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="1" t="s">
         <x:v>4</x:v>
@@ -895,11 +893,6 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8"/>
-    <x:row r="12" spans="1:8"/>
-    <x:row r="13" spans="1:8"/>
-    <x:row r="14" spans="1:8"/>
-    <x:row r="15" spans="1:8"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -938,7 +931,6 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8"/>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="1" t="s">
         <x:v>4</x:v>
@@ -1111,7 +1103,6 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="1" t="s">
         <x:v>4</x:v>
@@ -1284,7 +1275,6 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4"/>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
         <x:v>4</x:v>
@@ -1369,7 +1359,6 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="1" t="s">
         <x:v>4</x:v>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -103,49 +103,41 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF90EE90"/>
-        <x:bgColor rgb="FF90EE90"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF1E90FF"/>
-        <x:bgColor rgb="FF1E90FF"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00CED1"/>
-        <x:bgColor rgb="FF00CED1"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFA9A9A9"/>
-        <x:bgColor rgb="FFA9A9A9"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFDEB887"/>
-        <x:bgColor rgb="FFDEB887"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFCD5C5C"/>
-        <x:bgColor rgb="FFCD5C5C"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFE9967A"/>
-        <x:bgColor rgb="FFE9967A"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFF1493"/>
-        <x:bgColor rgb="FFFF1493"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -164,6 +164,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -186,9 +189,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -197,6 +197,10 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -226,10 +230,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -550,7 +550,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -575,146 +575,146 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="C4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="s">
+      <x:c r="A4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="C4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s"/>
-      <x:c r="F5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="4" t="s">
+      <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s"/>
+      <x:c r="F5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F6" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="6" t="s">
+      <x:c r="A6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C7" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F7" s="7" t="s"/>
-      <x:c r="G7" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H7" s="7" t="s">
+      <x:c r="A7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F7" s="8" t="s"/>
+      <x:c r="G7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="7" t="s"/>
-      <x:c r="B8" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s"/>
+      <x:c r="A8" s="8" t="s"/>
+      <x:c r="B8" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F8" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="4" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="A9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F9" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H9" s="8" t="s"/>
+      <x:c r="F9" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H9" s="9" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B10" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G10" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H10" s="5" t="s">
+      <x:c r="A10" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G10" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H10" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B11" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="8" t="s"/>
-      <x:c r="F11" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s"/>
-      <x:c r="H11" s="1" t="s">
+      <x:c r="A11" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="9" t="s"/>
+      <x:c r="F11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -741,147 +741,147 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E3" s="7" t="s"/>
-      <x:c r="F3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G3" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="8" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="8" t="s"/>
+      <x:c r="F3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H4" s="8" t="s">
+      <x:c r="A4" s="2" t="s"/>
+      <x:c r="B4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D5" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s"/>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D5" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G5" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="8" t="s"/>
+      <x:c r="G5" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="9" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H8" s="7" t="s"/>
+      <x:c r="A8" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H8" s="8" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E9" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s"/>
-      <x:c r="H9" s="7" t="s">
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="A10" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F10" s="8" t="s"/>
-      <x:c r="G10" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H10" s="7" t="s">
+      <x:c r="D10" s="4" t="s"/>
+      <x:c r="E10" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="9" t="s"/>
+      <x:c r="G10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H10" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -909,163 +909,163 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="9" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="9" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="C5" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="7" t="s"/>
-      <x:c r="G5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="7" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="C5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="8" t="s"/>
+      <x:c r="G5" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s"/>
-      <x:c r="F6" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="6" t="s">
+      <x:c r="A6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s"/>
+      <x:c r="F6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="5" t="s">
+      <x:c r="A7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H8" s="2" t="s">
+      <x:c r="A8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="7" t="s"/>
-      <x:c r="B9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G9" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H9" s="4" t="s">
+      <x:c r="A9" s="8" t="s"/>
+      <x:c r="B9" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H9" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="A10" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F10" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G10" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="3" t="s"/>
+      <x:c r="F10" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G10" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="4" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B11" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s"/>
-      <x:c r="H11" s="1" t="s">
+      <x:c r="A11" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B12" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C12" s="8" t="s"/>
-      <x:c r="F12" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G12" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H12" s="8" t="s"/>
+      <x:c r="A12" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C12" s="9" t="s"/>
+      <x:c r="F12" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G12" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H12" s="9" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1091,151 +1091,151 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G3" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="8" t="s"/>
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G3" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="9" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="F4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s"/>
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s"/>
+      <x:c r="F4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="4" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G5" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="6" t="s">
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="7" t="s"/>
-      <x:c r="G6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="7" t="s">
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s"/>
+      <x:c r="G6" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="7" t="s"/>
-      <x:c r="B7" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G7" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H7" s="4" t="s">
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="B7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H7" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="A8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H8" s="2" t="s">
+      <x:c r="F8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H9" s="5" t="s">
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H9" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="8" t="s"/>
-      <x:c r="F10" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s"/>
-      <x:c r="H10" s="1" t="s">
+      <x:c r="A10" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s"/>
+      <x:c r="F10" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1263,65 +1263,65 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="8" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="s">
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="4" t="s"/>
-      <x:c r="D6" s="2" t="s">
+      <x:c r="A6" s="5" t="s"/>
+      <x:c r="D6" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="7" t="s"/>
-      <x:c r="D7" s="3" t="s">
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="D7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D8" s="5" t="s">
+      <x:c r="D8" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D9" s="7" t="s"/>
+      <x:c r="A9" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="8" t="s">
+      <x:c r="A10" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="4" t="s"/>
+      <x:c r="D10" s="5" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1347,151 +1347,151 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="6" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="F4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="4" t="s">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s"/>
+      <x:c r="F4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G6" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s"/>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G6" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="4" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="7" t="s"/>
-      <x:c r="B7" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="5" t="s">
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="B7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="A8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G8" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="8" t="s"/>
+      <x:c r="F8" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="9" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s"/>
-      <x:c r="H9" s="1" t="s">
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="8" t="s"/>
-      <x:c r="F10" s="7" t="s"/>
-      <x:c r="G10" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="7" t="s">
+      <x:c r="A10" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s"/>
+      <x:c r="F10" s="8" t="s"/>
+      <x:c r="G10" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -240,7 +240,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="F3:H11" totalsRowShown="0">
   <x:autoFilter ref="F3:H11"/>
   <x:tableColumns count="3">

--- a/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -248,7 +248,7 @@
     <x:tableColumn id="2" name="Column2"/>
     <x:tableColumn id="3" name="Column3"/>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
